--- a/sample/data/wellbore.xlsx
+++ b/sample/data/wellbore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SpotfireMods\wellbore\sample\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Spotfire Mods\wellbore\sample\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4CEE8-2E2A-4FC9-AF61-15DC356B88CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D24BF-B7B5-446F-A8C6-3E1955E52999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{7D74C571-1FD8-42F8-A528-D062AF51D65C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -75,40 +75,7 @@
     <t>Well A</t>
   </si>
   <si>
-    <t>Well A-1</t>
-  </si>
-  <si>
-    <t>Well A-2</t>
-  </si>
-  <si>
-    <t>Well A-3</t>
-  </si>
-  <si>
-    <t>Well A-4</t>
-  </si>
-  <si>
-    <t>Well A-5</t>
-  </si>
-  <si>
-    <t>Well A-6</t>
-  </si>
-  <si>
-    <t>Well A-7</t>
-  </si>
-  <si>
-    <t>Well A-8</t>
-  </si>
-  <si>
-    <t>Well A-9</t>
-  </si>
-  <si>
-    <t>Well A-P1</t>
-  </si>
-  <si>
     <t>Plug</t>
-  </si>
-  <si>
-    <t>Well A-P2</t>
   </si>
   <si>
     <t>Value</t>
@@ -126,37 +93,46 @@
     <t>Well B</t>
   </si>
   <si>
-    <t>Well B-1</t>
+    <t>perfStartMD</t>
   </si>
   <si>
-    <t>Well B-2</t>
+    <t>perfEndMD</t>
   </si>
   <si>
-    <t>Well B-3</t>
+    <t>Well A-PF1</t>
   </si>
   <si>
-    <t>Well B-4</t>
+    <t>Well A-PF2</t>
   </si>
   <si>
-    <t>Well B-5</t>
+    <t>Well A-PL1</t>
   </si>
   <si>
-    <t>Well B-6</t>
+    <t>Well A-PL2</t>
   </si>
   <si>
-    <t>Well B-7</t>
+    <t>Well B-PF1</t>
   </si>
   <si>
-    <t>Well B-8</t>
+    <t>Well B-PF2</t>
   </si>
   <si>
-    <t>Well B-9</t>
+    <t>Well B-PL1</t>
   </si>
   <si>
-    <t>Well B-P1</t>
+    <t>Well B-PL2</t>
   </si>
   <si>
-    <t>Well B-P2</t>
+    <t>Well A-PF3</t>
+  </si>
+  <si>
+    <t>Well A-PF4</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Well A-G1</t>
   </si>
 </sst>
 </file>
@@ -509,21 +485,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA3B87C-4490-40D3-85A2-AFC7C9DF992D}">
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -565,10 +545,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -617,8 +603,11 @@
       <c r="N2">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -668,8 +657,11 @@
       <c r="N3">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -719,8 +711,11 @@
       <c r="N4">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -770,8 +765,11 @@
       <c r="N5">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -821,8 +819,11 @@
       <c r="N6">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -872,8 +873,11 @@
       <c r="N7">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -923,8 +927,11 @@
       <c r="N8">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -974,8 +981,11 @@
       <c r="N9">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1025,8 +1035,11 @@
       <c r="N10">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="N11">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="N12">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1178,8 +1197,11 @@
       <c r="N13">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1229,8 +1251,11 @@
       <c r="N14">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1280,8 +1305,11 @@
       <c r="N15">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1331,8 +1359,11 @@
       <c r="N16">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1382,8 +1413,11 @@
       <c r="N17">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1433,8 +1467,11 @@
       <c r="N18">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1484,8 +1521,11 @@
       <c r="N19">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1535,8 +1575,11 @@
       <c r="N20">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1586,8 +1629,11 @@
       <c r="N21">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1637,8 +1683,11 @@
       <c r="N22">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1688,8 +1737,11 @@
       <c r="N23">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1739,8 +1791,11 @@
       <c r="N24">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1790,8 +1845,11 @@
       <c r="N25">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1841,8 +1899,11 @@
       <c r="N26">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1892,8 +1953,11 @@
       <c r="N27">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1943,8 +2007,11 @@
       <c r="N28">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1994,8 +2061,11 @@
       <c r="N29">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2045,8 +2115,11 @@
       <c r="N30">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2096,8 +2169,11 @@
       <c r="N31">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2147,8 +2223,11 @@
       <c r="N32">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2198,8 +2277,11 @@
       <c r="N33">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2249,8 +2331,11 @@
       <c r="N34">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2300,8 +2385,11 @@
       <c r="N35">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2351,8 +2439,11 @@
       <c r="N36">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2402,8 +2493,11 @@
       <c r="N37">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2453,8 +2547,11 @@
       <c r="N38">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2504,8 +2601,11 @@
       <c r="N39">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2555,8 +2655,11 @@
       <c r="N40">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2606,8 +2709,11 @@
       <c r="N41">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2657,8 +2763,11 @@
       <c r="N42">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2708,8 +2817,11 @@
       <c r="N43">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2759,8 +2871,11 @@
       <c r="N44">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2810,8 +2925,11 @@
       <c r="N45">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2861,8 +2979,11 @@
       <c r="N46">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2912,8 +3033,11 @@
       <c r="N47">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2963,8 +3087,11 @@
       <c r="N48">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3014,8 +3141,11 @@
       <c r="N49">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="N50">
         <v>0.93140000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3116,8 +3249,11 @@
       <c r="N51">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -3167,8 +3303,11 @@
       <c r="N52">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3218,8 +3357,11 @@
       <c r="N53">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3269,8 +3411,11 @@
       <c r="N54">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3320,8 +3465,11 @@
       <c r="N55">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="N56">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3422,8 +3573,11 @@
       <c r="N57">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -3473,8 +3627,11 @@
       <c r="N58">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -3524,8 +3681,11 @@
       <c r="N59">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3575,8 +3735,11 @@
       <c r="N60">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3626,8 +3789,11 @@
       <c r="N61">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3677,8 +3843,11 @@
       <c r="N62">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3728,8 +3897,11 @@
       <c r="N63">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3779,8 +3951,11 @@
       <c r="N64">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -3830,8 +4005,11 @@
       <c r="N65">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -3881,8 +4059,11 @@
       <c r="N66">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -3932,8 +4113,11 @@
       <c r="N67">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -3983,8 +4167,11 @@
       <c r="N68">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4034,8 +4221,11 @@
       <c r="N69">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -4085,8 +4275,11 @@
       <c r="N70">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -4136,8 +4329,11 @@
       <c r="N71">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -4187,8 +4383,11 @@
       <c r="N72">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -4238,8 +4437,11 @@
       <c r="N73">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -4289,8 +4491,11 @@
       <c r="N74">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -4340,8 +4545,11 @@
       <c r="N75">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -4391,8 +4599,11 @@
       <c r="N76">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -4442,271 +4653,286 @@
       <c r="N77">
         <v>0.3654</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="1">
+      <c r="P78">
         <v>6010</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="1">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>7210</v>
+      </c>
+      <c r="Q79">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="1">
-        <v>6030</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>4700</v>
+      </c>
+      <c r="Q80">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="1">
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>5510</v>
+      </c>
+      <c r="Q81">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1">
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1">
-        <v>7210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>7220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
-      <c r="B85" t="s">
-        <v>23</v>
-      </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1">
-        <v>7230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5760</v>
+      </c>
+      <c r="O85">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
-      <c r="B86" t="s">
-        <v>24</v>
-      </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1">
-        <v>7240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5780</v>
+      </c>
+      <c r="O86">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D87" s="1">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5800</v>
+      </c>
+      <c r="O87">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
-      <c r="B88" t="s">
-        <v>27</v>
-      </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
-        <v>7245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5820</v>
+      </c>
+      <c r="O88">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1">
-        <v>5760</v>
+        <v>5840</v>
       </c>
       <c r="O89">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5860</v>
+      </c>
+      <c r="O90">
         <v>12.5</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="1">
-        <v>5780</v>
-      </c>
-      <c r="O90">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1">
-        <v>5800</v>
+        <v>5880</v>
       </c>
       <c r="O91">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1">
-        <v>5820</v>
+        <v>5900</v>
       </c>
       <c r="O92">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1">
-        <v>5840</v>
+        <v>5920</v>
       </c>
       <c r="O93">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1">
-        <v>5860</v>
+        <v>5940</v>
       </c>
       <c r="O94">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80.45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D95" s="1">
-        <v>5880</v>
+        <v>5960</v>
       </c>
       <c r="O95">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>75.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D96" s="1">
-        <v>5900</v>
+        <v>5980</v>
       </c>
       <c r="O96">
-        <v>12.8</v>
+        <v>72.132000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -4714,13 +4940,13 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D97" s="1">
-        <v>5920</v>
+        <v>6000</v>
       </c>
       <c r="O97">
-        <v>26.7</v>
+        <v>40.340000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -4728,13 +4954,13 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1">
-        <v>5940</v>
+        <v>6020</v>
       </c>
       <c r="O98">
-        <v>80.45</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -4742,13 +4968,13 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D99" s="1">
-        <v>5960</v>
+        <v>6040</v>
       </c>
       <c r="O99">
-        <v>75.31</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -4756,13 +4982,13 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D100" s="1">
-        <v>5980</v>
+        <v>6060</v>
       </c>
       <c r="O100">
-        <v>72.132000000000005</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -4770,13 +4996,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D101" s="1">
-        <v>6000</v>
+        <v>6080</v>
       </c>
       <c r="O101">
-        <v>40.340000000000003</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -4784,80 +5010,227 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D102" s="1">
-        <v>6020</v>
-      </c>
-      <c r="O102">
-        <v>20.6</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1">
-        <v>6040</v>
-      </c>
-      <c r="O103">
-        <v>12.5</v>
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <f>G103*COS(RADIANS(F103))</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <f>SUM(H$2:H103)*-1</f>
+        <v>-5544.5352060930654</v>
+      </c>
+      <c r="J103" s="1">
+        <f>G103*SIN(RADIANS(F103))*SIN(RADIANS(E103))</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <f>G103*SIN(RADIANS(F103))*COS(RADIANS(E103))</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <f>SUM(J$2:J103)</f>
+        <v>2273.6531534297133</v>
+      </c>
+      <c r="M103" s="1">
+        <f>SUM(K$2:K103)</f>
+        <v>286.66583003711213</v>
+      </c>
+      <c r="N103">
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
-        <v>6060</v>
-      </c>
-      <c r="O104">
-        <v>12.5</v>
+        <v>100</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <f>D104-D103</f>
+        <v>100</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" ref="H104:H167" si="8">G104*COS(RADIANS(F104))</f>
+        <v>100</v>
+      </c>
+      <c r="I104" s="1">
+        <f>SUM(H$2:H104)*-1</f>
+        <v>-5644.5352060930654</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" ref="J104:J167" si="9">G104*SIN(RADIANS(F104))*SIN(RADIANS(E104))</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" ref="K104:K167" si="10">G104*SIN(RADIANS(F104))*COS(RADIANS(E104))</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <f>SUM(J$2:J104)</f>
+        <v>2273.6531534297133</v>
+      </c>
+      <c r="M104" s="1">
+        <f>SUM(K$2:K104)</f>
+        <v>286.66583003711213</v>
+      </c>
+      <c r="N104">
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>6080</v>
-      </c>
-      <c r="O105">
-        <v>12.5</v>
+        <v>200</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" ref="G105:G168" si="11">D105-D104</f>
+        <v>100</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="I105" s="1">
+        <f>SUM(H$2:H105)*-1</f>
+        <v>-5744.5352060930654</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <f>SUM(J$2:J105)</f>
+        <v>2273.6531534297133</v>
+      </c>
+      <c r="M105" s="1">
+        <f>SUM(K$2:K105)</f>
+        <v>286.66583003711213</v>
+      </c>
+      <c r="N105">
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1">
-        <v>5780</v>
+        <v>300</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="I106" s="1">
+        <f>SUM(H$2:H106)*-1</f>
+        <v>-5844.5352060930654</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <f>SUM(J$2:J106)</f>
+        <v>2273.6531534297133</v>
+      </c>
+      <c r="M106" s="1">
+        <f>SUM(K$2:K106)</f>
+        <v>286.66583003711213</v>
+      </c>
+      <c r="N106">
+        <v>0.93140000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -4866,22 +5239,23 @@
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="H107" s="1">
-        <f>G107*COS(RADIANS(F107))</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="I107" s="1">
         <f>SUM(H$2:H107)*-1</f>
-        <v>-5544.5352060930654</v>
+        <v>-5944.5352060930654</v>
       </c>
       <c r="J107" s="1">
-        <f>G107*SIN(RADIANS(F107))*SIN(RADIANS(E107))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <f>G107*SIN(RADIANS(F107))*COS(RADIANS(E107))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L107" s="1">
@@ -4898,16 +5272,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4916,23 +5290,23 @@
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f>D108-D107</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" ref="H108:H171" si="8">G108*COS(RADIANS(F108))</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="I108" s="1">
         <f>SUM(H$2:H108)*-1</f>
-        <v>-5644.5352060930654</v>
+        <v>-6044.5352060930654</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" ref="J108:J171" si="9">G108*SIN(RADIANS(F108))*SIN(RADIANS(E108))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ref="K108:K171" si="10">G108*SIN(RADIANS(F108))*COS(RADIANS(E108))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L108" s="1">
@@ -4949,16 +5323,16 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4967,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" ref="G109:G172" si="11">D109-D108</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="H109" s="1">
@@ -4976,7 +5350,7 @@
       </c>
       <c r="I109" s="1">
         <f>SUM(H$2:H109)*-1</f>
-        <v>-5744.5352060930654</v>
+        <v>-6144.5352060930654</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="9"/>
@@ -5000,16 +5374,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -5027,7 +5401,7 @@
       </c>
       <c r="I110" s="1">
         <f>SUM(H$2:H110)*-1</f>
-        <v>-5844.5352060930654</v>
+        <v>-6244.5352060930654</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" si="9"/>
@@ -5051,16 +5425,16 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -5078,7 +5452,7 @@
       </c>
       <c r="I111" s="1">
         <f>SUM(H$2:H111)*-1</f>
-        <v>-5944.5352060930654</v>
+        <v>-6344.5352060930654</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" si="9"/>
@@ -5102,16 +5476,16 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -5129,7 +5503,7 @@
       </c>
       <c r="I112" s="1">
         <f>SUM(H$2:H112)*-1</f>
-        <v>-6044.5352060930654</v>
+        <v>-6444.5352060930654</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" si="9"/>
@@ -5153,16 +5527,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -5180,7 +5554,7 @@
       </c>
       <c r="I113" s="1">
         <f>SUM(H$2:H113)*-1</f>
-        <v>-6144.5352060930654</v>
+        <v>-6544.5352060930654</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="9"/>
@@ -5204,16 +5578,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="1">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -5231,7 +5605,7 @@
       </c>
       <c r="I114" s="1">
         <f>SUM(H$2:H114)*-1</f>
-        <v>-6244.5352060930654</v>
+        <v>-6644.5352060930654</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" si="9"/>
@@ -5255,16 +5629,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -5282,7 +5656,7 @@
       </c>
       <c r="I115" s="1">
         <f>SUM(H$2:H115)*-1</f>
-        <v>-6344.5352060930654</v>
+        <v>-6744.5352060930654</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="9"/>
@@ -5306,16 +5680,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="1">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -5333,7 +5707,7 @@
       </c>
       <c r="I116" s="1">
         <f>SUM(H$2:H116)*-1</f>
-        <v>-6444.5352060930654</v>
+        <v>-6844.5352060930654</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" si="9"/>
@@ -5357,16 +5731,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -5384,7 +5758,7 @@
       </c>
       <c r="I117" s="1">
         <f>SUM(H$2:H117)*-1</f>
-        <v>-6544.5352060930654</v>
+        <v>-6944.5352060930654</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="9"/>
@@ -5408,16 +5782,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="1">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -5435,7 +5809,7 @@
       </c>
       <c r="I118" s="1">
         <f>SUM(H$2:H118)*-1</f>
-        <v>-6644.5352060930654</v>
+        <v>-7044.5352060930654</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="9"/>
@@ -5459,16 +5833,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -5486,7 +5860,7 @@
       </c>
       <c r="I119" s="1">
         <f>SUM(H$2:H119)*-1</f>
-        <v>-6744.5352060930654</v>
+        <v>-7144.5352060930654</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="9"/>
@@ -5510,16 +5884,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="1">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -5537,7 +5911,7 @@
       </c>
       <c r="I120" s="1">
         <f>SUM(H$2:H120)*-1</f>
-        <v>-6844.5352060930654</v>
+        <v>-7244.5352060930654</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="9"/>
@@ -5561,16 +5935,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="1">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -5588,7 +5962,7 @@
       </c>
       <c r="I121" s="1">
         <f>SUM(H$2:H121)*-1</f>
-        <v>-6944.5352060930654</v>
+        <v>-7344.5352060930654</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="9"/>
@@ -5612,16 +5986,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="1">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -5639,7 +6013,7 @@
       </c>
       <c r="I122" s="1">
         <f>SUM(H$2:H122)*-1</f>
-        <v>-7044.5352060930654</v>
+        <v>-7444.5352060930654</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="9"/>
@@ -5663,16 +6037,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -5690,7 +6064,7 @@
       </c>
       <c r="I123" s="1">
         <f>SUM(H$2:H123)*-1</f>
-        <v>-7144.5352060930654</v>
+        <v>-7544.5352060930654</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="9"/>
@@ -5714,22 +6088,22 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="1">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="E124" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G124" s="1">
         <f t="shared" si="11"/>
@@ -5737,27 +6111,27 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I124" s="1">
         <f>SUM(H$2:H124)*-1</f>
-        <v>-7244.5352060930654</v>
+        <v>-7643.9873956298925</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5750839988414751</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-9.822462559470484</v>
       </c>
       <c r="L124" s="1">
         <f>SUM(J$2:J124)</f>
-        <v>2273.6531534297133</v>
+        <v>2277.2282374285546</v>
       </c>
       <c r="M124" s="1">
         <f>SUM(K$2:K124)</f>
-        <v>286.66583003711213</v>
+        <v>276.84336747764166</v>
       </c>
       <c r="N124">
         <v>0.93140000000000001</v>
@@ -5765,22 +6139,22 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F125" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G125" s="1">
         <f t="shared" si="11"/>
@@ -5788,27 +6162,27 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>97.814760073380569</v>
       </c>
       <c r="I125" s="1">
         <f>SUM(H$2:H125)*-1</f>
-        <v>-7344.5352060930654</v>
+        <v>-7741.8021557032735</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13.364305876663437</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-15.926959541041557</v>
       </c>
       <c r="L125" s="1">
         <f>SUM(J$2:J125)</f>
-        <v>2273.6531534297133</v>
+        <v>2290.592543305218</v>
       </c>
       <c r="M125" s="1">
         <f>SUM(K$2:K125)</f>
-        <v>286.66583003711213</v>
+        <v>260.91640793660008</v>
       </c>
       <c r="N125">
         <v>0.93140000000000001</v>
@@ -5816,22 +6190,22 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="1">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G126" s="1">
         <f t="shared" si="11"/>
@@ -5839,27 +6213,27 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>95.10565162951535</v>
       </c>
       <c r="I126" s="1">
         <f>SUM(H$2:H126)*-1</f>
-        <v>-7444.5352060930654</v>
+        <v>-7836.9078073327892</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>26.761656732981741</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-15.450849718747362</v>
       </c>
       <c r="L126" s="1">
         <f>SUM(J$2:J126)</f>
-        <v>2273.6531534297133</v>
+        <v>2317.3542000381999</v>
       </c>
       <c r="M126" s="1">
         <f>SUM(K$2:K126)</f>
-        <v>286.66583003711213</v>
+        <v>245.46555821785273</v>
       </c>
       <c r="N126">
         <v>0.93140000000000001</v>
@@ -5867,22 +6241,22 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F127" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" si="11"/>
@@ -5890,27 +6264,27 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>95.10565162951535</v>
       </c>
       <c r="I127" s="1">
         <f>SUM(H$2:H127)*-1</f>
-        <v>-7544.5352060930654</v>
+        <v>-7932.0134589623049</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.432233187297804</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5.3660237941321665</v>
       </c>
       <c r="L127" s="1">
         <f>SUM(J$2:J127)</f>
-        <v>2273.6531534297133</v>
+        <v>2347.7864332254976</v>
       </c>
       <c r="M127" s="1">
         <f>SUM(K$2:K127)</f>
-        <v>286.66583003711213</v>
+        <v>240.09953442372057</v>
       </c>
       <c r="N127">
         <v>0.93140000000000001</v>
@@ -5918,22 +6292,22 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="1">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E128" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F128" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G128" s="1">
         <f t="shared" si="11"/>
@@ -5941,27 +6315,27 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>97.814760073380569</v>
       </c>
       <c r="I128" s="1">
         <f>SUM(H$2:H128)*-1</f>
-        <v>-7643.9873956298925</v>
+        <v>-8029.8282190356858</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="9"/>
-        <v>3.5750839988414751</v>
+        <v>20.475304505920651</v>
       </c>
       <c r="K128" s="1">
         <f t="shared" si="10"/>
-        <v>-9.822462559470484</v>
+        <v>3.610348622615418</v>
       </c>
       <c r="L128" s="1">
         <f>SUM(J$2:J128)</f>
-        <v>2277.2282374285546</v>
+        <v>2368.2617377314182</v>
       </c>
       <c r="M128" s="1">
         <f>SUM(K$2:K128)</f>
-        <v>276.84336747764166</v>
+        <v>243.70988304633599</v>
       </c>
       <c r="N128">
         <v>0.93140000000000001</v>
@@ -5969,22 +6343,22 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="E129" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F129" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G129" s="1">
         <f t="shared" si="11"/>
@@ -5992,27 +6366,27 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" si="8"/>
-        <v>97.814760073380569</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I129" s="1">
         <f>SUM(H$2:H129)*-1</f>
-        <v>-7741.8021557032735</v>
+        <v>-8129.2804085725129</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="9"/>
-        <v>13.364305876663437</v>
+        <v>9.0524304608336443</v>
       </c>
       <c r="K129" s="1">
         <f t="shared" si="10"/>
-        <v>-15.926959541041557</v>
+        <v>5.2264231633826741</v>
       </c>
       <c r="L129" s="1">
         <f>SUM(J$2:J129)</f>
-        <v>2290.592543305218</v>
+        <v>2377.3141681922516</v>
       </c>
       <c r="M129" s="1">
         <f>SUM(K$2:K129)</f>
-        <v>260.91640793660008</v>
+        <v>248.93630620971865</v>
       </c>
       <c r="N129">
         <v>0.93140000000000001</v>
@@ -6020,22 +6394,22 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="1">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="E130" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F130" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G130" s="1">
         <f t="shared" si="11"/>
@@ -6043,27 +6417,27 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" si="8"/>
-        <v>95.10565162951535</v>
+        <v>100</v>
       </c>
       <c r="I130" s="1">
         <f>SUM(H$2:H130)*-1</f>
-        <v>-7836.9078073327892</v>
+        <v>-8229.2804085725129</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="9"/>
-        <v>26.761656732981741</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
         <f t="shared" si="10"/>
-        <v>-15.450849718747362</v>
+        <v>0</v>
       </c>
       <c r="L130" s="1">
         <f>SUM(J$2:J130)</f>
-        <v>2317.3542000381999</v>
+        <v>2377.3141681922516</v>
       </c>
       <c r="M130" s="1">
         <f>SUM(K$2:K130)</f>
-        <v>245.46555821785273</v>
+        <v>248.93630620971865</v>
       </c>
       <c r="N130">
         <v>0.93140000000000001</v>
@@ -6071,22 +6445,22 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="E131" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F131" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G131" s="1">
         <f t="shared" si="11"/>
@@ -6094,27 +6468,27 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" si="8"/>
-        <v>95.10565162951535</v>
+        <v>100</v>
       </c>
       <c r="I131" s="1">
         <f>SUM(H$2:H131)*-1</f>
-        <v>-7932.0134589623049</v>
+        <v>-8329.2804085725129</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" si="9"/>
-        <v>30.432233187297804</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
         <f t="shared" si="10"/>
-        <v>-5.3660237941321665</v>
+        <v>0</v>
       </c>
       <c r="L131" s="1">
         <f>SUM(J$2:J131)</f>
-        <v>2347.7864332254976</v>
+        <v>2377.3141681922516</v>
       </c>
       <c r="M131" s="1">
         <f>SUM(K$2:K131)</f>
-        <v>240.09953442372057</v>
+        <v>248.93630620971865</v>
       </c>
       <c r="N131">
         <v>0.93140000000000001</v>
@@ -6122,22 +6496,22 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="1">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E132" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F132" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G132" s="1">
         <f t="shared" si="11"/>
@@ -6145,27 +6519,27 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" si="8"/>
-        <v>97.814760073380569</v>
+        <v>100</v>
       </c>
       <c r="I132" s="1">
         <f>SUM(H$2:H132)*-1</f>
-        <v>-8029.8282190356858</v>
+        <v>-8429.2804085725129</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" si="9"/>
-        <v>20.475304505920651</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
         <f t="shared" si="10"/>
-        <v>3.610348622615418</v>
+        <v>0</v>
       </c>
       <c r="L132" s="1">
         <f>SUM(J$2:J132)</f>
-        <v>2368.2617377314182</v>
+        <v>2377.3141681922516</v>
       </c>
       <c r="M132" s="1">
         <f>SUM(K$2:K132)</f>
-        <v>243.70988304633599</v>
+        <v>248.93630620971865</v>
       </c>
       <c r="N132">
         <v>0.93140000000000001</v>
@@ -6173,22 +6547,22 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E133" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F133" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G133" s="1">
         <f t="shared" si="11"/>
@@ -6196,19 +6570,19 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>100</v>
       </c>
       <c r="I133" s="1">
         <f>SUM(H$2:H133)*-1</f>
-        <v>-8129.2804085725129</v>
+        <v>-8529.2804085725129</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" si="9"/>
-        <v>9.0524304608336443</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" si="10"/>
-        <v>5.2264231633826741</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1">
         <f>SUM(J$2:J133)</f>
@@ -6224,16 +6598,16 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="1">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -6251,7 +6625,7 @@
       </c>
       <c r="I134" s="1">
         <f>SUM(H$2:H134)*-1</f>
-        <v>-8229.2804085725129</v>
+        <v>-8629.2804085725129</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="9"/>
@@ -6275,16 +6649,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -6302,7 +6676,7 @@
       </c>
       <c r="I135" s="1">
         <f>SUM(H$2:H135)*-1</f>
-        <v>-8329.2804085725129</v>
+        <v>-8729.2804085725129</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" si="9"/>
@@ -6326,22 +6700,22 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="1">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="E136" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G136" s="1">
         <f t="shared" si="11"/>
@@ -6349,27 +6723,27 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I136" s="1">
         <f>SUM(H$2:H136)*-1</f>
-        <v>-8429.2804085725129</v>
+        <v>-8828.73259810934</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.0524304608336443</v>
       </c>
       <c r="K136" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.2264231633826741</v>
       </c>
       <c r="L136" s="1">
         <f>SUM(J$2:J136)</f>
-        <v>2377.3141681922516</v>
+        <v>2386.366598653085</v>
       </c>
       <c r="M136" s="1">
         <f>SUM(K$2:K136)</f>
-        <v>248.93630620971865</v>
+        <v>254.16272937310131</v>
       </c>
       <c r="N136">
         <v>0.93140000000000001</v>
@@ -6377,22 +6751,22 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F137" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G137" s="1">
         <f t="shared" si="11"/>
@@ -6400,27 +6774,27 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>97.814760073380569</v>
       </c>
       <c r="I137" s="1">
         <f>SUM(H$2:H137)*-1</f>
-        <v>-8529.2804085725129</v>
+        <v>-8926.5473581827209</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20.791169081775934</v>
       </c>
       <c r="K137" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.2736134338140829E-15</v>
       </c>
       <c r="L137" s="1">
         <f>SUM(J$2:J137)</f>
-        <v>2377.3141681922516</v>
+        <v>2407.157767734861</v>
       </c>
       <c r="M137" s="1">
         <f>SUM(K$2:K137)</f>
-        <v>248.93630620971865</v>
+        <v>254.16272937310131</v>
       </c>
       <c r="N137">
         <v>0.93140000000000001</v>
@@ -6428,22 +6802,22 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="1">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="E138" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F138" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G138" s="1">
         <f t="shared" si="11"/>
@@ -6451,27 +6825,27 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>95.10565162951535</v>
       </c>
       <c r="I138" s="1">
         <f>SUM(H$2:H138)*-1</f>
-        <v>-8629.2804085725129</v>
+        <v>-9021.6530098122366</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.901699437494738</v>
       </c>
       <c r="K138" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.8929584659948626E-15</v>
       </c>
       <c r="L138" s="1">
         <f>SUM(J$2:J138)</f>
-        <v>2377.3141681922516</v>
+        <v>2438.0594671723557</v>
       </c>
       <c r="M138" s="1">
         <f>SUM(K$2:K138)</f>
-        <v>248.93630620971865</v>
+        <v>254.16272937310131</v>
       </c>
       <c r="N138">
         <v>0.93140000000000001</v>
@@ -6479,22 +6853,22 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="1">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E139" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F139" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G139" s="1">
         <f t="shared" si="11"/>
@@ -6502,27 +6876,27 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>95.10565162951535</v>
       </c>
       <c r="I139" s="1">
         <f>SUM(H$2:H139)*-1</f>
-        <v>-8729.2804085725129</v>
+        <v>-9116.7586614417523</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.901699437494738</v>
       </c>
       <c r="K139" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.8929584659948626E-15</v>
       </c>
       <c r="L139" s="1">
         <f>SUM(J$2:J139)</f>
-        <v>2377.3141681922516</v>
+        <v>2468.9611666098504</v>
       </c>
       <c r="M139" s="1">
         <f>SUM(K$2:K139)</f>
-        <v>248.93630620971865</v>
+        <v>254.16272937310131</v>
       </c>
       <c r="N139">
         <v>0.93140000000000001</v>
@@ -6530,22 +6904,22 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="1">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="E140" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F140" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G140" s="1">
         <f t="shared" si="11"/>
@@ -6553,27 +6927,27 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>97.814760073380569</v>
       </c>
       <c r="I140" s="1">
         <f>SUM(H$2:H140)*-1</f>
-        <v>-8828.73259810934</v>
+        <v>-9214.5734215151333</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="9"/>
-        <v>9.0524304608336443</v>
+        <v>18.005680599195539</v>
       </c>
       <c r="K140" s="1">
         <f t="shared" si="10"/>
-        <v>5.2264231633826741</v>
+        <v>-10.395584540887961</v>
       </c>
       <c r="L140" s="1">
         <f>SUM(J$2:J140)</f>
-        <v>2386.366598653085</v>
+        <v>2486.9668472090457</v>
       </c>
       <c r="M140" s="1">
         <f>SUM(K$2:K140)</f>
-        <v>254.16272937310131</v>
+        <v>243.76714483221335</v>
       </c>
       <c r="N140">
         <v>0.93140000000000001</v>
@@ -6581,22 +6955,22 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="E141" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F141" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G141" s="1">
         <f t="shared" si="11"/>
@@ -6604,27 +6978,27 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" si="8"/>
-        <v>97.814760073380569</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I141" s="1">
         <f>SUM(H$2:H141)*-1</f>
-        <v>-8926.5473581827209</v>
+        <v>-9314.0256110519604</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" si="9"/>
-        <v>20.791169081775934</v>
+        <v>9.0524304608336461</v>
       </c>
       <c r="K141" s="1">
         <f t="shared" si="10"/>
-        <v>1.2736134338140829E-15</v>
+        <v>-5.2264231633826705</v>
       </c>
       <c r="L141" s="1">
         <f>SUM(J$2:J141)</f>
-        <v>2407.157767734861</v>
+        <v>2496.0192776698791</v>
       </c>
       <c r="M141" s="1">
         <f>SUM(K$2:K141)</f>
-        <v>254.16272937310131</v>
+        <v>238.54072166883068</v>
       </c>
       <c r="N141">
         <v>0.93140000000000001</v>
@@ -6632,22 +7006,22 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="1">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="E142" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F142" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G142" s="1">
         <f t="shared" si="11"/>
@@ -6655,27 +7029,27 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" si="8"/>
-        <v>95.10565162951535</v>
+        <v>100</v>
       </c>
       <c r="I142" s="1">
         <f>SUM(H$2:H142)*-1</f>
-        <v>-9021.6530098122366</v>
+        <v>-9414.0256110519604</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="9"/>
-        <v>30.901699437494738</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1">
         <f t="shared" si="10"/>
-        <v>1.8929584659948626E-15</v>
+        <v>0</v>
       </c>
       <c r="L142" s="1">
         <f>SUM(J$2:J142)</f>
-        <v>2438.0594671723557</v>
+        <v>2496.0192776698791</v>
       </c>
       <c r="M142" s="1">
         <f>SUM(K$2:K142)</f>
-        <v>254.16272937310131</v>
+        <v>238.54072166883068</v>
       </c>
       <c r="N142">
         <v>0.93140000000000001</v>
@@ -6683,22 +7057,22 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="E143" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F143" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G143" s="1">
         <f t="shared" si="11"/>
@@ -6706,27 +7080,27 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" si="8"/>
-        <v>95.10565162951535</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I143" s="1">
         <f>SUM(H$2:H143)*-1</f>
-        <v>-9116.7586614417523</v>
+        <v>-9513.4778005887874</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="9"/>
-        <v>30.901699437494738</v>
+        <v>9.0524304608336461</v>
       </c>
       <c r="K143" s="1">
         <f t="shared" si="10"/>
-        <v>1.8929584659948626E-15</v>
+        <v>-5.2264231633826705</v>
       </c>
       <c r="L143" s="1">
         <f>SUM(J$2:J143)</f>
-        <v>2468.9611666098504</v>
+        <v>2505.0717081307125</v>
       </c>
       <c r="M143" s="1">
         <f>SUM(K$2:K143)</f>
-        <v>254.16272937310131</v>
+        <v>233.31429850544802</v>
       </c>
       <c r="N143">
         <v>0.93140000000000001</v>
@@ -6734,22 +7108,22 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="1">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="E144" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F144" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G144" s="1">
         <f t="shared" si="11"/>
@@ -6757,27 +7131,27 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" si="8"/>
-        <v>97.814760073380569</v>
+        <v>100</v>
       </c>
       <c r="I144" s="1">
         <f>SUM(H$2:H144)*-1</f>
-        <v>-9214.5734215151333</v>
+        <v>-9613.4778005887874</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="9"/>
-        <v>18.005680599195539</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1">
         <f t="shared" si="10"/>
-        <v>-10.395584540887961</v>
+        <v>0</v>
       </c>
       <c r="L144" s="1">
         <f>SUM(J$2:J144)</f>
-        <v>2486.9668472090457</v>
+        <v>2505.0717081307125</v>
       </c>
       <c r="M144" s="1">
         <f>SUM(K$2:K144)</f>
-        <v>243.76714483221335</v>
+        <v>233.31429850544802</v>
       </c>
       <c r="N144">
         <v>0.93140000000000001</v>
@@ -6785,22 +7159,22 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="E145" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F145" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G145" s="1">
         <f t="shared" si="11"/>
@@ -6808,27 +7182,27 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>100</v>
       </c>
       <c r="I145" s="1">
         <f>SUM(H$2:H145)*-1</f>
-        <v>-9314.0256110519604</v>
+        <v>-9713.4778005887874</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="9"/>
-        <v>9.0524304608336461</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1">
         <f t="shared" si="10"/>
-        <v>-5.2264231633826705</v>
+        <v>0</v>
       </c>
       <c r="L145" s="1">
         <f>SUM(J$2:J145)</f>
-        <v>2496.0192776698791</v>
+        <v>2505.0717081307125</v>
       </c>
       <c r="M145" s="1">
         <f>SUM(K$2:K145)</f>
-        <v>238.54072166883068</v>
+        <v>233.31429850544802</v>
       </c>
       <c r="N145">
         <v>0.93140000000000001</v>
@@ -6836,16 +7210,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -6863,7 +7237,7 @@
       </c>
       <c r="I146" s="1">
         <f>SUM(H$2:H146)*-1</f>
-        <v>-9414.0256110519604</v>
+        <v>-9813.4778005887874</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" si="9"/>
@@ -6875,11 +7249,11 @@
       </c>
       <c r="L146" s="1">
         <f>SUM(J$2:J146)</f>
-        <v>2496.0192776698791</v>
+        <v>2505.0717081307125</v>
       </c>
       <c r="M146" s="1">
         <f>SUM(K$2:K146)</f>
-        <v>238.54072166883068</v>
+        <v>233.31429850544802</v>
       </c>
       <c r="N146">
         <v>0.93140000000000001</v>
@@ -6887,22 +7261,22 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="E147" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F147" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G147" s="1">
         <f t="shared" si="11"/>
@@ -6910,19 +7284,19 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>100</v>
       </c>
       <c r="I147" s="1">
         <f>SUM(H$2:H147)*-1</f>
-        <v>-9513.4778005887874</v>
+        <v>-9913.4778005887874</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" si="9"/>
-        <v>9.0524304608336461</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1">
         <f t="shared" si="10"/>
-        <v>-5.2264231633826705</v>
+        <v>0</v>
       </c>
       <c r="L147" s="1">
         <f>SUM(J$2:J147)</f>
@@ -6938,16 +7312,16 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="1">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -6965,7 +7339,7 @@
       </c>
       <c r="I148" s="1">
         <f>SUM(H$2:H148)*-1</f>
-        <v>-9613.4778005887874</v>
+        <v>-10013.477800588787</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" si="9"/>
@@ -6989,16 +7363,16 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -7016,7 +7390,7 @@
       </c>
       <c r="I149" s="1">
         <f>SUM(H$2:H149)*-1</f>
-        <v>-9713.4778005887874</v>
+        <v>-10113.477800588787</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" si="9"/>
@@ -7040,16 +7414,16 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150" s="1">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="E150" s="1">
         <v>0</v>
@@ -7067,7 +7441,7 @@
       </c>
       <c r="I150" s="1">
         <f>SUM(H$2:H150)*-1</f>
-        <v>-9813.4778005887874</v>
+        <v>-10213.477800588787</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" si="9"/>
@@ -7091,16 +7465,16 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="1">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="E151" s="1">
         <v>0</v>
@@ -7118,7 +7492,7 @@
       </c>
       <c r="I151" s="1">
         <f>SUM(H$2:H151)*-1</f>
-        <v>-9913.4778005887874</v>
+        <v>-10313.477800588787</v>
       </c>
       <c r="J151" s="1">
         <f t="shared" si="9"/>
@@ -7142,16 +7516,16 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="1">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -7169,7 +7543,7 @@
       </c>
       <c r="I152" s="1">
         <f>SUM(H$2:H152)*-1</f>
-        <v>-10013.477800588787</v>
+        <v>-10413.477800588787</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" si="9"/>
@@ -7188,21 +7562,21 @@
         <v>233.31429850544802</v>
       </c>
       <c r="N152">
-        <v>0.93140000000000001</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
@@ -7220,7 +7594,7 @@
       </c>
       <c r="I153" s="1">
         <f>SUM(H$2:H153)*-1</f>
-        <v>-10113.477800588787</v>
+        <v>-10513.477800588787</v>
       </c>
       <c r="J153" s="1">
         <f t="shared" si="9"/>
@@ -7239,21 +7613,21 @@
         <v>233.31429850544802</v>
       </c>
       <c r="N153">
-        <v>0.93140000000000001</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="1">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -7271,7 +7645,7 @@
       </c>
       <c r="I154" s="1">
         <f>SUM(H$2:H154)*-1</f>
-        <v>-10213.477800588787</v>
+        <v>-10613.477800588787</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" si="9"/>
@@ -7290,21 +7664,21 @@
         <v>233.31429850544802</v>
       </c>
       <c r="N154">
-        <v>0.93140000000000001</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="1">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
@@ -7322,7 +7696,7 @@
       </c>
       <c r="I155" s="1">
         <f>SUM(H$2:H155)*-1</f>
-        <v>-10313.477800588787</v>
+        <v>-10713.477800588787</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" si="9"/>
@@ -7341,27 +7715,27 @@
         <v>233.31429850544802</v>
       </c>
       <c r="N155">
-        <v>0.93140000000000001</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="1">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F156" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G156" s="1">
         <f t="shared" si="11"/>
@@ -7369,27 +7743,27 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>99.452189536827333</v>
       </c>
       <c r="I156" s="1">
         <f>SUM(H$2:H156)*-1</f>
-        <v>-10413.477800588787</v>
+        <v>-10812.929990125614</v>
       </c>
       <c r="J156" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.0524304608336461</v>
       </c>
       <c r="K156" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5.2264231633826705</v>
       </c>
       <c r="L156" s="1">
         <f>SUM(J$2:J156)</f>
-        <v>2505.0717081307125</v>
+        <v>2514.1241385915459</v>
       </c>
       <c r="M156" s="1">
         <f>SUM(K$2:K156)</f>
-        <v>233.31429850544802</v>
+        <v>228.08787534206536</v>
       </c>
       <c r="N156">
         <v>0.3654</v>
@@ -7397,22 +7771,22 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="1">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="E157" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F157" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G157" s="1">
         <f t="shared" si="11"/>
@@ -7420,27 +7794,27 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>95.10565162951535</v>
       </c>
       <c r="I157" s="1">
         <f>SUM(H$2:H157)*-1</f>
-        <v>-10513.477800588787</v>
+        <v>-10908.03564175513</v>
       </c>
       <c r="J157" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>29.848749562898544</v>
       </c>
       <c r="K157" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-7.9979483404574934</v>
       </c>
       <c r="L157" s="1">
         <f>SUM(J$2:J157)</f>
-        <v>2505.0717081307125</v>
+        <v>2543.9728881544443</v>
       </c>
       <c r="M157" s="1">
         <f>SUM(K$2:K157)</f>
-        <v>233.31429850544802</v>
+        <v>220.08992700160786</v>
       </c>
       <c r="N157">
         <v>0.3654</v>
@@ -7448,22 +7822,22 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="1">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="E158" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F158" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G158" s="1">
         <f t="shared" si="11"/>
@@ -7471,27 +7845,27 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>80.901699437494742</v>
       </c>
       <c r="I158" s="1">
         <f>SUM(H$2:H158)*-1</f>
-        <v>-10613.477800588787</v>
+        <v>-10988.937341192624</v>
       </c>
       <c r="J158" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>57.885547356386425</v>
       </c>
       <c r="K158" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.206783792008489</v>
       </c>
       <c r="L158" s="1">
         <f>SUM(J$2:J158)</f>
-        <v>2505.0717081307125</v>
+        <v>2601.8584355108305</v>
       </c>
       <c r="M158" s="1">
         <f>SUM(K$2:K158)</f>
-        <v>233.31429850544802</v>
+        <v>230.29671079361634</v>
       </c>
       <c r="N158">
         <v>0.3654</v>
@@ -7499,22 +7873,22 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="E159" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F159" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G159" s="1">
         <f t="shared" si="11"/>
@@ -7522,27 +7896,27 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>58.778525229247315</v>
       </c>
       <c r="I159" s="1">
         <f>SUM(H$2:H159)*-1</f>
-        <v>-10713.477800588787</v>
+        <v>-11047.715866421871</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>79.672620837908212</v>
       </c>
       <c r="K159" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14.048432677478692</v>
       </c>
       <c r="L159" s="1">
         <f>SUM(J$2:J159)</f>
-        <v>2505.0717081307125</v>
+        <v>2681.5310563487387</v>
       </c>
       <c r="M159" s="1">
         <f>SUM(K$2:K159)</f>
-        <v>233.31429850544802</v>
+        <v>244.34514347109504</v>
       </c>
       <c r="N159">
         <v>0.3654</v>
@@ -7550,22 +7924,22 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="1">
-        <v>5300</v>
+        <v>5700</v>
       </c>
       <c r="E160" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F160" s="1">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G160" s="1">
         <f t="shared" si="11"/>
@@ -7573,27 +7947,27 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" si="8"/>
-        <v>99.452189536827333</v>
+        <v>30.901699437494745</v>
       </c>
       <c r="I160" s="1">
         <f>SUM(H$2:H160)*-1</f>
-        <v>-10812.929990125614</v>
+        <v>-11078.617565859366</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" si="9"/>
-        <v>9.0524304608336461</v>
+        <v>93.660783080024856</v>
       </c>
       <c r="K160" s="1">
         <f t="shared" si="10"/>
-        <v>-5.2264231633826705</v>
+        <v>16.514923091291273</v>
       </c>
       <c r="L160" s="1">
         <f>SUM(J$2:J160)</f>
-        <v>2514.1241385915459</v>
+        <v>2775.1918394287636</v>
       </c>
       <c r="M160" s="1">
         <f>SUM(K$2:K160)</f>
-        <v>228.08787534206536</v>
+        <v>260.86006656238629</v>
       </c>
       <c r="N160">
         <v>0.3654</v>
@@ -7601,22 +7975,22 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="E161" s="1">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F161" s="1">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G161" s="1">
         <f t="shared" si="11"/>
@@ -7624,27 +7998,27 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" si="8"/>
-        <v>95.10565162951535</v>
+        <v>10.452846326765346</v>
       </c>
       <c r="I161" s="1">
         <f>SUM(H$2:H161)*-1</f>
-        <v>-10908.03564175513</v>
+        <v>-11089.070412186131</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" si="9"/>
-        <v>29.848749562898544</v>
+        <v>97.941287309907153</v>
       </c>
       <c r="K161" s="1">
         <f t="shared" si="10"/>
-        <v>-7.9979483404574934</v>
+        <v>17.269691478056231</v>
       </c>
       <c r="L161" s="1">
         <f>SUM(J$2:J161)</f>
-        <v>2543.9728881544443</v>
+        <v>2873.1331267386709</v>
       </c>
       <c r="M161" s="1">
         <f>SUM(K$2:K161)</f>
-        <v>220.08992700160786</v>
+        <v>278.12975804044254</v>
       </c>
       <c r="N161">
         <v>0.3654</v>
@@ -7652,22 +8026,22 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="1">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="E162" s="1">
         <v>80</v>
       </c>
       <c r="F162" s="1">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G162" s="1">
         <f t="shared" si="11"/>
@@ -7675,27 +8049,27 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" si="8"/>
-        <v>80.901699437494742</v>
+        <v>6.1257422745431001E-15</v>
       </c>
       <c r="I162" s="1">
         <f>SUM(H$2:H162)*-1</f>
-        <v>-10988.937341192624</v>
+        <v>-11089.070412186131</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" si="9"/>
-        <v>57.885547356386425</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="K162" s="1">
         <f t="shared" si="10"/>
-        <v>10.206783792008489</v>
+        <v>17.36481776669304</v>
       </c>
       <c r="L162" s="1">
         <f>SUM(J$2:J162)</f>
-        <v>2601.8584355108305</v>
+        <v>2971.6139020398919</v>
       </c>
       <c r="M162" s="1">
         <f>SUM(K$2:K162)</f>
-        <v>230.29671079361634</v>
+        <v>295.49457580713556</v>
       </c>
       <c r="N162">
         <v>0.3654</v>
@@ -7703,22 +8077,22 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="E163" s="1">
         <v>80</v>
       </c>
       <c r="F163" s="1">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G163" s="1">
         <f t="shared" si="11"/>
@@ -7726,27 +8100,27 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" si="8"/>
-        <v>58.778525229247315</v>
+        <v>6.1257422745431001E-15</v>
       </c>
       <c r="I163" s="1">
         <f>SUM(H$2:H163)*-1</f>
-        <v>-11047.715866421871</v>
+        <v>-11089.070412186131</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" si="9"/>
-        <v>79.672620837908212</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="K163" s="1">
         <f t="shared" si="10"/>
-        <v>14.048432677478692</v>
+        <v>17.36481776669304</v>
       </c>
       <c r="L163" s="1">
         <f>SUM(J$2:J163)</f>
-        <v>2681.5310563487387</v>
+        <v>3070.0946773411129</v>
       </c>
       <c r="M163" s="1">
         <f>SUM(K$2:K163)</f>
-        <v>244.34514347109504</v>
+        <v>312.85939357382858</v>
       </c>
       <c r="N163">
         <v>0.3654</v>
@@ -7754,22 +8128,22 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="1">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="E164" s="1">
         <v>80</v>
       </c>
       <c r="F164" s="1">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G164" s="1">
         <f t="shared" si="11"/>
@@ -7777,27 +8151,27 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" si="8"/>
-        <v>30.901699437494745</v>
+        <v>6.1257422745431001E-15</v>
       </c>
       <c r="I164" s="1">
         <f>SUM(H$2:H164)*-1</f>
-        <v>-11078.617565859366</v>
+        <v>-11089.070412186131</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" si="9"/>
-        <v>93.660783080024856</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="K164" s="1">
         <f t="shared" si="10"/>
-        <v>16.514923091291273</v>
+        <v>17.36481776669304</v>
       </c>
       <c r="L164" s="1">
         <f>SUM(J$2:J164)</f>
-        <v>2775.1918394287636</v>
+        <v>3168.5754526423339</v>
       </c>
       <c r="M164" s="1">
         <f>SUM(K$2:K164)</f>
-        <v>260.86006656238629</v>
+        <v>330.22421134052161</v>
       </c>
       <c r="N164">
         <v>0.3654</v>
@@ -7805,22 +8179,22 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="E165" s="1">
         <v>80</v>
       </c>
       <c r="F165" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G165" s="1">
         <f t="shared" si="11"/>
@@ -7828,7 +8202,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" si="8"/>
-        <v>10.452846326765346</v>
+        <v>6.1257422745431001E-15</v>
       </c>
       <c r="I165" s="1">
         <f>SUM(H$2:H165)*-1</f>
@@ -7836,19 +8210,19 @@
       </c>
       <c r="J165" s="1">
         <f t="shared" si="9"/>
-        <v>97.941287309907153</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="K165" s="1">
         <f t="shared" si="10"/>
-        <v>17.269691478056231</v>
+        <v>17.36481776669304</v>
       </c>
       <c r="L165" s="1">
         <f>SUM(J$2:J165)</f>
-        <v>2873.1331267386709</v>
+        <v>3267.0562279435549</v>
       </c>
       <c r="M165" s="1">
         <f>SUM(K$2:K165)</f>
-        <v>278.12975804044254</v>
+        <v>347.58902910721463</v>
       </c>
       <c r="N165">
         <v>0.3654</v>
@@ -7856,16 +8230,16 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="1">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="E166" s="1">
         <v>80</v>
@@ -7895,11 +8269,11 @@
       </c>
       <c r="L166" s="1">
         <f>SUM(J$2:J166)</f>
-        <v>2971.6139020398919</v>
+        <v>3365.5370032447759</v>
       </c>
       <c r="M166" s="1">
         <f>SUM(K$2:K166)</f>
-        <v>295.49457580713556</v>
+        <v>364.95384687390765</v>
       </c>
       <c r="N166">
         <v>0.3654</v>
@@ -7907,16 +8281,16 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="E167" s="1">
         <v>80</v>
@@ -7946,11 +8320,11 @@
       </c>
       <c r="L167" s="1">
         <f>SUM(J$2:J167)</f>
-        <v>3070.0946773411129</v>
+        <v>3464.0177785459969</v>
       </c>
       <c r="M167" s="1">
         <f>SUM(K$2:K167)</f>
-        <v>312.85939357382858</v>
+        <v>382.31866464060067</v>
       </c>
       <c r="N167">
         <v>0.3654</v>
@@ -7958,16 +8332,16 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="1">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="E168" s="1">
         <v>80</v>
@@ -7980,7 +8354,7 @@
         <v>100</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H168:H178" si="12">G168*COS(RADIANS(F168))</f>
         <v>6.1257422745431001E-15</v>
       </c>
       <c r="I168" s="1">
@@ -7988,20 +8362,20 @@
         <v>-11089.070412186131</v>
       </c>
       <c r="J168" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J168:J178" si="13">G168*SIN(RADIANS(F168))*SIN(RADIANS(E168))</f>
         <v>98.480775301220802</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K168:K178" si="14">G168*SIN(RADIANS(F168))*COS(RADIANS(E168))</f>
         <v>17.36481776669304</v>
       </c>
       <c r="L168" s="1">
         <f>SUM(J$2:J168)</f>
-        <v>3168.5754526423339</v>
+        <v>3562.4985538472179</v>
       </c>
       <c r="M168" s="1">
         <f>SUM(K$2:K168)</f>
-        <v>330.22421134052161</v>
+        <v>399.6834824072937</v>
       </c>
       <c r="N168">
         <v>0.3654</v>
@@ -8009,16 +8383,16 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="E169" s="1">
         <v>80</v>
@@ -8027,11 +8401,11 @@
         <v>90</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G169:G178" si="15">D169-D168</f>
         <v>100</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.1257422745431001E-15</v>
       </c>
       <c r="I169" s="1">
@@ -8039,20 +8413,20 @@
         <v>-11089.070412186131</v>
       </c>
       <c r="J169" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>98.480775301220802</v>
       </c>
       <c r="K169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.36481776669304</v>
       </c>
       <c r="L169" s="1">
         <f>SUM(J$2:J169)</f>
-        <v>3267.0562279435549</v>
+        <v>3660.9793291484389</v>
       </c>
       <c r="M169" s="1">
         <f>SUM(K$2:K169)</f>
-        <v>347.58902910721463</v>
+        <v>417.04830017398672</v>
       </c>
       <c r="N169">
         <v>0.3654</v>
@@ -8060,16 +8434,16 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="1">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="E170" s="1">
         <v>80</v>
@@ -8078,11 +8452,11 @@
         <v>90</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="H170" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.1257422745431001E-15</v>
       </c>
       <c r="I170" s="1">
@@ -8090,20 +8464,20 @@
         <v>-11089.070412186131</v>
       </c>
       <c r="J170" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>98.480775301220802</v>
       </c>
       <c r="K170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.36481776669304</v>
       </c>
       <c r="L170" s="1">
         <f>SUM(J$2:J170)</f>
-        <v>3365.5370032447759</v>
+        <v>3759.4601044496599</v>
       </c>
       <c r="M170" s="1">
         <f>SUM(K$2:K170)</f>
-        <v>364.95384687390765</v>
+        <v>434.41311794067974</v>
       </c>
       <c r="N170">
         <v>0.3654</v>
@@ -8111,16 +8485,16 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="E171" s="1">
         <v>80</v>
@@ -8129,11 +8503,11 @@
         <v>90</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.1257422745431001E-15</v>
       </c>
       <c r="I171" s="1">
@@ -8141,20 +8515,20 @@
         <v>-11089.070412186131</v>
       </c>
       <c r="J171" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>98.480775301220802</v>
       </c>
       <c r="K171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.36481776669304</v>
       </c>
       <c r="L171" s="1">
         <f>SUM(J$2:J171)</f>
-        <v>3464.0177785459969</v>
+        <v>3857.9408797508809</v>
       </c>
       <c r="M171" s="1">
         <f>SUM(K$2:K171)</f>
-        <v>382.31866464060067</v>
+        <v>451.77793570737276</v>
       </c>
       <c r="N171">
         <v>0.3654</v>
@@ -8162,16 +8536,16 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="1">
-        <v>6500</v>
+        <v>6900</v>
       </c>
       <c r="E172" s="1">
         <v>80</v>
@@ -8180,11 +8554,11 @@
         <v>90</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="H172" s="1">
-        <f t="shared" ref="H172:H182" si="12">G172*COS(RADIANS(F172))</f>
+        <f t="shared" si="12"/>
         <v>6.1257422745431001E-15</v>
       </c>
       <c r="I172" s="1">
@@ -8192,20 +8566,20 @@
         <v>-11089.070412186131</v>
       </c>
       <c r="J172" s="1">
-        <f t="shared" ref="J172:J182" si="13">G172*SIN(RADIANS(F172))*SIN(RADIANS(E172))</f>
+        <f t="shared" si="13"/>
         <v>98.480775301220802</v>
       </c>
       <c r="K172" s="1">
-        <f t="shared" ref="K172:K182" si="14">G172*SIN(RADIANS(F172))*COS(RADIANS(E172))</f>
+        <f t="shared" si="14"/>
         <v>17.36481776669304</v>
       </c>
       <c r="L172" s="1">
         <f>SUM(J$2:J172)</f>
-        <v>3562.4985538472179</v>
+        <v>3956.4216550521019</v>
       </c>
       <c r="M172" s="1">
         <f>SUM(K$2:K172)</f>
-        <v>399.6834824072937</v>
+        <v>469.14275347406578</v>
       </c>
       <c r="N172">
         <v>0.3654</v>
@@ -8213,16 +8587,16 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="E173" s="1">
         <v>80</v>
@@ -8231,7 +8605,7 @@
         <v>90</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" ref="G173:G182" si="15">D173-D172</f>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="H173" s="1">
@@ -8252,11 +8626,11 @@
       </c>
       <c r="L173" s="1">
         <f>SUM(J$2:J173)</f>
-        <v>3660.9793291484389</v>
+        <v>4054.9024303533229</v>
       </c>
       <c r="M173" s="1">
         <f>SUM(K$2:K173)</f>
-        <v>417.04830017398672</v>
+        <v>486.50757124075881</v>
       </c>
       <c r="N173">
         <v>0.3654</v>
@@ -8264,16 +8638,16 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="1">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="E174" s="1">
         <v>80</v>
@@ -8303,11 +8677,11 @@
       </c>
       <c r="L174" s="1">
         <f>SUM(J$2:J174)</f>
-        <v>3759.4601044496599</v>
+        <v>4153.3832056545434</v>
       </c>
       <c r="M174" s="1">
         <f>SUM(K$2:K174)</f>
-        <v>434.41311794067974</v>
+        <v>503.87238900745183</v>
       </c>
       <c r="N174">
         <v>0.3654</v>
@@ -8315,16 +8689,16 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="E175" s="1">
         <v>80</v>
@@ -8354,11 +8728,11 @@
       </c>
       <c r="L175" s="1">
         <f>SUM(J$2:J175)</f>
-        <v>3857.9408797508809</v>
+        <v>4251.8639809557644</v>
       </c>
       <c r="M175" s="1">
         <f>SUM(K$2:K175)</f>
-        <v>451.77793570737276</v>
+        <v>521.23720677414485</v>
       </c>
       <c r="N175">
         <v>0.3654</v>
@@ -8366,16 +8740,16 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="1">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="E176" s="1">
         <v>80</v>
@@ -8405,28 +8779,28 @@
       </c>
       <c r="L176" s="1">
         <f>SUM(J$2:J176)</f>
-        <v>3956.4216550521019</v>
+        <v>4350.3447562569854</v>
       </c>
       <c r="M176" s="1">
         <f>SUM(K$2:K176)</f>
-        <v>469.14275347406578</v>
+        <v>538.60202454083787</v>
       </c>
       <c r="N176">
         <v>0.3654</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E177" s="1">
         <v>80</v>
@@ -8456,28 +8830,28 @@
       </c>
       <c r="L177" s="1">
         <f>SUM(J$2:J177)</f>
-        <v>4054.9024303533229</v>
+        <v>4448.8255315582064</v>
       </c>
       <c r="M177" s="1">
         <f>SUM(K$2:K177)</f>
-        <v>486.50757124075881</v>
+        <v>555.9668423075309</v>
       </c>
       <c r="N177">
         <v>0.3654</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="1">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="E178" s="1">
         <v>80</v>
@@ -8507,453 +8881,317 @@
       </c>
       <c r="L178" s="1">
         <f>SUM(J$2:J178)</f>
-        <v>4153.3832056545434</v>
+        <v>4547.3063068594274</v>
       </c>
       <c r="M178" s="1">
         <f>SUM(K$2:K178)</f>
-        <v>503.87238900745183</v>
+        <v>573.33166007422392</v>
       </c>
       <c r="N178">
         <v>0.3654</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D179" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E179" s="1">
-        <v>80</v>
-      </c>
-      <c r="F179" s="1">
-        <v>90</v>
-      </c>
-      <c r="G179" s="1">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="H179" s="1">
-        <f t="shared" si="12"/>
-        <v>6.1257422745431001E-15</v>
-      </c>
-      <c r="I179" s="1">
-        <f>SUM(H$2:H179)*-1</f>
-        <v>-11089.070412186131</v>
-      </c>
-      <c r="J179" s="1">
-        <f t="shared" si="13"/>
-        <v>98.480775301220802</v>
-      </c>
-      <c r="K179" s="1">
-        <f t="shared" si="14"/>
-        <v>17.36481776669304</v>
-      </c>
-      <c r="L179" s="1">
-        <f>SUM(J$2:J179)</f>
-        <v>4251.8639809557644</v>
-      </c>
-      <c r="M179" s="1">
-        <f>SUM(K$2:K179)</f>
-        <v>521.23720677414485</v>
-      </c>
-      <c r="N179">
-        <v>0.3654</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6010</v>
+      </c>
+      <c r="P179">
+        <v>6010</v>
+      </c>
+      <c r="Q179">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D180" s="1">
-        <v>7300</v>
-      </c>
-      <c r="E180" s="1">
-        <v>80</v>
-      </c>
-      <c r="F180" s="1">
-        <v>90</v>
-      </c>
-      <c r="G180" s="1">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="H180" s="1">
-        <f t="shared" si="12"/>
-        <v>6.1257422745431001E-15</v>
-      </c>
-      <c r="I180" s="1">
-        <f>SUM(H$2:H180)*-1</f>
-        <v>-11089.070412186131</v>
-      </c>
-      <c r="J180" s="1">
-        <f t="shared" si="13"/>
-        <v>98.480775301220802</v>
-      </c>
-      <c r="K180" s="1">
-        <f t="shared" si="14"/>
-        <v>17.36481776669304</v>
-      </c>
-      <c r="L180" s="1">
-        <f>SUM(J$2:J180)</f>
-        <v>4350.3447562569854</v>
-      </c>
-      <c r="M180" s="1">
-        <f>SUM(K$2:K180)</f>
-        <v>538.60202454083787</v>
-      </c>
-      <c r="N180">
-        <v>0.3654</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6020</v>
+      </c>
+      <c r="P180">
+        <v>7210</v>
+      </c>
+      <c r="Q180">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1">
-        <v>7400</v>
-      </c>
-      <c r="E181" s="1">
-        <v>80</v>
-      </c>
-      <c r="F181" s="1">
-        <v>90</v>
-      </c>
-      <c r="G181" s="1">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="H181" s="1">
-        <f t="shared" si="12"/>
-        <v>6.1257422745431001E-15</v>
-      </c>
-      <c r="I181" s="1">
-        <f>SUM(H$2:H181)*-1</f>
-        <v>-11089.070412186131</v>
-      </c>
-      <c r="J181" s="1">
-        <f t="shared" si="13"/>
-        <v>98.480775301220802</v>
-      </c>
-      <c r="K181" s="1">
-        <f t="shared" si="14"/>
-        <v>17.36481776669304</v>
-      </c>
-      <c r="L181" s="1">
-        <f>SUM(J$2:J181)</f>
-        <v>4448.8255315582064</v>
-      </c>
-      <c r="M181" s="1">
-        <f>SUM(K$2:K181)</f>
-        <v>555.9668423075309</v>
-      </c>
-      <c r="N181">
-        <v>0.3654</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D182" s="1">
-        <v>7500</v>
-      </c>
-      <c r="E182" s="1">
-        <v>80</v>
-      </c>
-      <c r="F182" s="1">
-        <v>90</v>
-      </c>
-      <c r="G182" s="1">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="H182" s="1">
-        <f t="shared" si="12"/>
-        <v>6.1257422745431001E-15</v>
-      </c>
-      <c r="I182" s="1">
-        <f>SUM(H$2:H182)*-1</f>
-        <v>-11089.070412186131</v>
-      </c>
-      <c r="J182" s="1">
-        <f t="shared" si="13"/>
-        <v>98.480775301220802</v>
-      </c>
-      <c r="K182" s="1">
-        <f t="shared" si="14"/>
-        <v>17.36481776669304</v>
-      </c>
-      <c r="L182" s="1">
-        <f>SUM(J$2:J182)</f>
-        <v>4547.3063068594274</v>
-      </c>
-      <c r="M182" s="1">
-        <f>SUM(K$2:K182)</f>
-        <v>573.33166007422392</v>
-      </c>
-      <c r="N182">
-        <v>0.3654</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D183" s="1">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5760</v>
+      </c>
+      <c r="O183">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>32</v>
-      </c>
-      <c r="B184" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D184" s="1">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5780</v>
+      </c>
+      <c r="O184">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1">
-        <v>6030</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5800</v>
+      </c>
+      <c r="O185">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>32</v>
-      </c>
-      <c r="B186" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D186" s="1">
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5820</v>
+      </c>
+      <c r="O186">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>32</v>
-      </c>
-      <c r="B187" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D187" s="1">
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5840</v>
+      </c>
+      <c r="O187">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>32</v>
-      </c>
-      <c r="B188" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1">
-        <v>7210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5860</v>
+      </c>
+      <c r="O188">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>32</v>
-      </c>
-      <c r="B189" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D189" s="1">
-        <v>7220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5880</v>
+      </c>
+      <c r="O189">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>32</v>
-      </c>
-      <c r="B190" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D190" s="1">
-        <v>7230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5900</v>
+      </c>
+      <c r="O190">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>32</v>
-      </c>
-      <c r="B191" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D191" s="1">
-        <v>7240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5920</v>
+      </c>
+      <c r="O191">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>32</v>
-      </c>
-      <c r="B192" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D192" s="1">
-        <v>6055</v>
+        <v>5940</v>
+      </c>
+      <c r="O192">
+        <v>80.45</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>32</v>
-      </c>
-      <c r="B193" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D193" s="1">
-        <v>7245</v>
+        <v>5960</v>
+      </c>
+      <c r="O193">
+        <v>75.31</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D194" s="1">
-        <v>5760</v>
+        <v>5980</v>
       </c>
       <c r="O194">
-        <v>12.5</v>
+        <v>72.132000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D195" s="1">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="O195">
-        <v>43.2</v>
+        <v>40.340000000000003</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D196" s="1">
-        <v>5800</v>
+        <v>6020</v>
       </c>
       <c r="O196">
-        <v>44.5</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D197" s="1">
-        <v>5820</v>
+        <v>6040</v>
       </c>
       <c r="O197">
-        <v>42.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D198" s="1">
-        <v>5840</v>
+        <v>6060</v>
       </c>
       <c r="O198">
-        <v>20.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D199" s="1">
-        <v>5860</v>
+        <v>6080</v>
       </c>
       <c r="O199">
         <v>12.5</v>
@@ -8961,166 +9199,12 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D200" s="1">
-        <v>5880</v>
-      </c>
-      <c r="O200">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>32</v>
-      </c>
-      <c r="C201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" s="1">
-        <v>5900</v>
-      </c>
-      <c r="O201">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>32</v>
-      </c>
-      <c r="C202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" s="1">
-        <v>5920</v>
-      </c>
-      <c r="O202">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>32</v>
-      </c>
-      <c r="C203" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" s="1">
-        <v>5940</v>
-      </c>
-      <c r="O203">
-        <v>80.45</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>32</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" s="1">
-        <v>5960</v>
-      </c>
-      <c r="O204">
-        <v>75.31</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>32</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" s="1">
-        <v>5980</v>
-      </c>
-      <c r="O205">
-        <v>72.132000000000005</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O206">
-        <v>40.340000000000003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" s="1">
-        <v>6020</v>
-      </c>
-      <c r="O207">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" s="1">
-        <v>6040</v>
-      </c>
-      <c r="O208">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" s="1">
-        <v>6060</v>
-      </c>
-      <c r="O209">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" s="1">
-        <v>6080</v>
-      </c>
-      <c r="O210">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>32</v>
-      </c>
-      <c r="C211" t="s">
-        <v>30</v>
-      </c>
-      <c r="D211" s="1">
         <v>5780</v>
       </c>
     </row>
